--- a/master_data/skills.xlsx
+++ b/master_data/skills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/EDA Indeed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/jobs-data-cleaning/master_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="8_{88A3CB9E-CDBA-4EEB-B550-FDA5CFD2561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24752B72-A432-4697-BD2B-75F373CB1E42}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="8_{88A3CB9E-CDBA-4EEB-B550-FDA5CFD2561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{987C5AB5-3997-4684-862D-8F17BB780214}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="skills" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="141">
   <si>
     <t>Skills</t>
   </si>
@@ -416,6 +416,33 @@
   </si>
   <si>
     <t>GoogleCloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3 </t>
+  </si>
+  <si>
+    <t>D3,</t>
+  </si>
+  <si>
+    <t>D3/</t>
+  </si>
+  <si>
+    <t>D365</t>
+  </si>
+  <si>
+    <t>Dynamics</t>
+  </si>
+  <si>
+    <t>Dynamics 365</t>
+  </si>
+  <si>
+    <t>Chat GPT</t>
+  </si>
+  <si>
+    <t>ChatGPT</t>
+  </si>
+  <si>
+    <t>GPT</t>
   </si>
 </sst>
 </file>
@@ -1260,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,7 +1881,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="B74" t="s">
         <v>58</v>
@@ -1862,127 +1889,127 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="B75" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="B76" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B77" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B80" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B82" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B83" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B85" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B86" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B87" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B88" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B89" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B90" t="s">
         <v>84</v>
@@ -1990,279 +2017,279 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B91" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B92" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B94" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B95" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B96" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B97" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B98" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B99" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B100" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B101" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B102" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B104" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B105" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B107" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B108" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B109" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B110" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B111" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B112" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B113" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B114" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B115" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B116" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B117" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B118" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B119" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B120" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B121" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B122" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B123" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B124" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B125" t="s">
         <v>128</v>
@@ -2270,18 +2297,74 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>131</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B129" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>140</v>
+      </c>
+      <c r="B134" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/master_data/skills.xlsx
+++ b/master_data/skills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/jobs-data-cleaning/master_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/master_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="167" documentId="8_{88A3CB9E-CDBA-4EEB-B550-FDA5CFD2561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{987C5AB5-3997-4684-862D-8F17BB780214}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="skills" sheetId="1" r:id="rId1"/>
@@ -984,10 +984,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1289,13 +1285,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1311,7 +1307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1319,7 +1315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1327,7 +1323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1335,7 +1331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1343,7 +1339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1351,7 +1347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1359,7 +1355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1367,7 +1363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1375,7 +1371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1383,7 +1379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1391,7 +1387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1399,7 +1395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1407,7 +1403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1415,7 +1411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1423,7 +1419,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1431,7 +1427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1439,7 +1435,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>123</v>
       </c>
@@ -1447,7 +1443,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>124</v>
       </c>
@@ -1455,7 +1451,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>125</v>
       </c>
@@ -1463,7 +1459,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1471,7 +1467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1479,7 +1475,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1487,7 +1483,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1495,7 +1491,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1503,7 +1499,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -1511,7 +1507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -1519,7 +1515,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -1527,7 +1523,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -1535,7 +1531,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -1543,7 +1539,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -1551,7 +1547,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -1559,7 +1555,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -1567,7 +1563,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -1575,7 +1571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -1583,7 +1579,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -1591,7 +1587,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -1599,7 +1595,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -1607,7 +1603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -1615,7 +1611,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -1623,7 +1619,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -1631,7 +1627,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -1639,7 +1635,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -1647,7 +1643,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -1655,7 +1651,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -1663,7 +1659,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -1671,7 +1667,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>121</v>
       </c>
@@ -1679,7 +1675,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -1687,7 +1683,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -1695,7 +1691,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -1703,7 +1699,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -1711,7 +1707,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -1719,7 +1715,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -1727,7 +1723,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>45</v>
       </c>
@@ -1735,7 +1731,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>122</v>
       </c>
@@ -1743,7 +1739,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>120</v>
       </c>
@@ -1751,7 +1747,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>47</v>
       </c>
@@ -1759,7 +1755,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -1767,7 +1763,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -1775,7 +1771,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>81</v>
       </c>
@@ -1783,7 +1779,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>82</v>
       </c>
@@ -1791,7 +1787,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>50</v>
       </c>
@@ -1799,7 +1795,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -1807,7 +1803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -1815,7 +1811,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>51</v>
       </c>
@@ -1823,7 +1819,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>52</v>
       </c>
@@ -1831,7 +1827,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>53</v>
       </c>
@@ -1839,7 +1835,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>54</v>
       </c>
@@ -1847,7 +1843,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>55</v>
       </c>
@@ -1855,7 +1851,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>56</v>
       </c>
@@ -1863,7 +1859,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>57</v>
       </c>
@@ -1871,7 +1867,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -1879,7 +1875,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>132</v>
       </c>
@@ -1887,7 +1883,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>133</v>
       </c>
@@ -1895,7 +1891,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>134</v>
       </c>
@@ -1903,7 +1899,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>59</v>
       </c>
@@ -1911,7 +1907,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>60</v>
       </c>
@@ -1919,7 +1915,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>61</v>
       </c>
@@ -1927,7 +1923,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>62</v>
       </c>
@@ -1935,7 +1931,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>63</v>
       </c>
@@ -1943,7 +1939,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>64</v>
       </c>
@@ -1951,7 +1947,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>65</v>
       </c>
@@ -1959,7 +1955,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>66</v>
       </c>
@@ -1967,7 +1963,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>67</v>
       </c>
@@ -1975,7 +1971,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>68</v>
       </c>
@@ -1983,7 +1979,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>69</v>
       </c>
@@ -1991,7 +1987,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>70</v>
       </c>
@@ -1999,7 +1995,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>71</v>
       </c>
@@ -2007,7 +2003,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>84</v>
       </c>
@@ -2015,7 +2011,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>85</v>
       </c>
@@ -2023,7 +2019,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -2031,7 +2027,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -2039,7 +2035,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>88</v>
       </c>
@@ -2047,7 +2043,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>89</v>
       </c>
@@ -2055,7 +2051,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>90</v>
       </c>
@@ -2063,7 +2059,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>91</v>
       </c>
@@ -2071,7 +2067,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>92</v>
       </c>
@@ -2079,7 +2075,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>93</v>
       </c>
@@ -2087,7 +2083,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>94</v>
       </c>
@@ -2095,7 +2091,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>95</v>
       </c>
@@ -2103,7 +2099,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>96</v>
       </c>
@@ -2111,7 +2107,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>118</v>
       </c>
@@ -2119,7 +2115,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>119</v>
       </c>
@@ -2127,7 +2123,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>98</v>
       </c>
@@ -2135,7 +2131,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>99</v>
       </c>
@@ -2143,7 +2139,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>100</v>
       </c>
@@ -2151,7 +2147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>101</v>
       </c>
@@ -2159,7 +2155,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>102</v>
       </c>
@@ -2167,7 +2163,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>103</v>
       </c>
@@ -2175,7 +2171,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>104</v>
       </c>
@@ -2183,7 +2179,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>105</v>
       </c>
@@ -2191,7 +2187,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>106</v>
       </c>
@@ -2199,7 +2195,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>107</v>
       </c>
@@ -2207,7 +2203,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>108</v>
       </c>
@@ -2215,7 +2211,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>109</v>
       </c>
@@ -2223,7 +2219,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>110</v>
       </c>
@@ -2231,7 +2227,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>111</v>
       </c>
@@ -2239,7 +2235,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>112</v>
       </c>
@@ -2247,7 +2243,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>113</v>
       </c>
@@ -2255,7 +2251,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>114</v>
       </c>
@@ -2263,7 +2259,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>115</v>
       </c>
@@ -2271,7 +2267,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>116</v>
       </c>
@@ -2279,7 +2275,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>117</v>
       </c>
@@ -2287,7 +2283,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -2295,7 +2291,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -2303,7 +2299,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -2311,7 +2307,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>130</v>
       </c>
@@ -2319,7 +2315,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>131</v>
       </c>
@@ -2327,7 +2323,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>135</v>
       </c>
@@ -2335,7 +2331,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>136</v>
       </c>
@@ -2343,7 +2339,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -2351,7 +2347,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -2359,7 +2355,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>140</v>
       </c>

--- a/master_data/skills.xlsx
+++ b/master_data/skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/master_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="8_{88A3CB9E-CDBA-4EEB-B550-FDA5CFD2561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{987C5AB5-3997-4684-862D-8F17BB780214}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="8_{88A3CB9E-CDBA-4EEB-B550-FDA5CFD2561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D90CAD1-389C-47C1-8635-A8848C051E62}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="146">
   <si>
     <t>Skills</t>
   </si>
@@ -443,6 +443,21 @@
   </si>
   <si>
     <t>GPT</t>
+  </si>
+  <si>
+    <t>Dash,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dash </t>
+  </si>
+  <si>
+    <t>Dash.</t>
+  </si>
+  <si>
+    <t>Dash</t>
+  </si>
+  <si>
+    <t>Streamlit</t>
   </si>
 </sst>
 </file>
@@ -1283,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B134"/>
+  <dimension ref="A1:B138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2363,6 +2378,38 @@
         <v>138</v>
       </c>
     </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>141</v>
+      </c>
+      <c r="B135" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>142</v>
+      </c>
+      <c r="B136" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>143</v>
+      </c>
+      <c r="B137" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>145</v>
+      </c>
+      <c r="B138" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/master_data/skills.xlsx
+++ b/master_data/skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/master_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="8_{88A3CB9E-CDBA-4EEB-B550-FDA5CFD2561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D90CAD1-389C-47C1-8635-A8848C051E62}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="8_{88A3CB9E-CDBA-4EEB-B550-FDA5CFD2561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA1139FB-55B7-4310-8A9B-E46E77C0E303}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="157">
   <si>
     <t>Skills</t>
   </si>
@@ -458,6 +458,39 @@
   </si>
   <si>
     <t>Streamlit</t>
+  </si>
+  <si>
+    <t>Polars</t>
+  </si>
+  <si>
+    <t>German,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">German </t>
+  </si>
+  <si>
+    <t>German.</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Hindi</t>
   </si>
 </sst>
 </file>
@@ -999,6 +1032,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1298,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B138"/>
+  <dimension ref="A1:B148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2410,6 +2447,86 @@
         <v>145</v>
       </c>
     </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>146</v>
+      </c>
+      <c r="B139" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>147</v>
+      </c>
+      <c r="B140" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>148</v>
+      </c>
+      <c r="B141" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>149</v>
+      </c>
+      <c r="B142" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>150</v>
+      </c>
+      <c r="B143" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>151</v>
+      </c>
+      <c r="B144" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>152</v>
+      </c>
+      <c r="B145" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>153</v>
+      </c>
+      <c r="B146" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>154</v>
+      </c>
+      <c r="B147" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>156</v>
+      </c>
+      <c r="B148" t="s">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/master_data/skills.xlsx
+++ b/master_data/skills.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/master_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="192" documentId="8_{88A3CB9E-CDBA-4EEB-B550-FDA5CFD2561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA1139FB-55B7-4310-8A9B-E46E77C0E303}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="8_{88A3CB9E-CDBA-4EEB-B550-FDA5CFD2561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F20A2A1-7484-4B0A-9CB0-F06114BEC855}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="159">
   <si>
     <t>Skills</t>
   </si>
@@ -491,6 +491,12 @@
   </si>
   <si>
     <t>Hindi</t>
+  </si>
+  <si>
+    <t>Snowflake</t>
+  </si>
+  <si>
+    <t>Angular</t>
   </si>
 </sst>
 </file>
@@ -1335,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B148"/>
+  <dimension ref="A1:B150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148"/>
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2527,6 +2533,22 @@
         <v>156</v>
       </c>
     </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>157</v>
+      </c>
+      <c r="B149" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>158</v>
+      </c>
+      <c r="B150" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/master_data/skills.xlsx
+++ b/master_data/skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/master_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="196" documentId="8_{88A3CB9E-CDBA-4EEB-B550-FDA5CFD2561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F20A2A1-7484-4B0A-9CB0-F06114BEC855}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="8_{88A3CB9E-CDBA-4EEB-B550-FDA5CFD2561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B4821D4-092E-42F7-8992-1DE3C3D29D94}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="160">
   <si>
     <t>Skills</t>
   </si>
@@ -497,6 +497,9 @@
   </si>
   <si>
     <t>Angular</t>
+  </si>
+  <si>
+    <t>PPT</t>
   </si>
 </sst>
 </file>
@@ -1341,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B150"/>
+  <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1767,23 +1770,23 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s">
         <v>44</v>
@@ -1791,15 +1794,15 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B57" t="s">
         <v>46</v>
@@ -1807,31 +1810,31 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B61" t="s">
         <v>49</v>
@@ -1839,7 +1842,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B62" t="s">
         <v>49</v>
@@ -1847,15 +1850,15 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B64" t="s">
         <v>50</v>
@@ -1863,7 +1866,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B65" t="s">
         <v>50</v>
@@ -1871,55 +1874,55 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B72" t="s">
         <v>56</v>
@@ -1927,7 +1930,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B73" t="s">
         <v>56</v>
@@ -1935,15 +1938,15 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B75" t="s">
         <v>58</v>
@@ -1951,7 +1954,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B76" t="s">
         <v>58</v>
@@ -1959,79 +1962,79 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="B77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B81" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B86" t="s">
         <v>67</v>
@@ -2039,39 +2042,39 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B87" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B89" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B90" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B91" t="s">
         <v>84</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B92" t="s">
         <v>84</v>
@@ -2087,15 +2090,15 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B93" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B94" t="s">
         <v>87</v>
@@ -2103,15 +2106,15 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B96" t="s">
         <v>90</v>
@@ -2119,15 +2122,15 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B97" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B98" t="s">
         <v>91</v>
@@ -2135,15 +2138,15 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B99" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B100" t="s">
         <v>93</v>
@@ -2151,15 +2154,15 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B101" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B102" t="s">
         <v>95</v>
@@ -2167,15 +2170,15 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B103" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B104" t="s">
         <v>97</v>
@@ -2183,31 +2186,31 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B106" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B107" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B108" t="s">
         <v>100</v>
@@ -2215,15 +2218,15 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B109" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B110" t="s">
         <v>102</v>
@@ -2231,15 +2234,15 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B111" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B112" t="s">
         <v>104</v>
@@ -2247,15 +2250,15 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B113" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B114" t="s">
         <v>106</v>
@@ -2263,15 +2266,15 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B115" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B116" t="s">
         <v>108</v>
@@ -2279,15 +2282,15 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B117" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B118" t="s">
         <v>110</v>
@@ -2295,15 +2298,15 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B119" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B120" t="s">
         <v>112</v>
@@ -2311,15 +2314,15 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B121" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B122" t="s">
         <v>114</v>
@@ -2327,15 +2330,15 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B123" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B124" t="s">
         <v>116</v>
@@ -2343,15 +2346,15 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B125" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B126" t="s">
         <v>128</v>
@@ -2359,7 +2362,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B127" t="s">
         <v>128</v>
@@ -2367,15 +2370,15 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B129" t="s">
         <v>130</v>
@@ -2383,15 +2386,15 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B131" t="s">
         <v>137</v>
@@ -2399,15 +2402,15 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B132" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B133" t="s">
         <v>138</v>
@@ -2415,7 +2418,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B134" t="s">
         <v>138</v>
@@ -2423,15 +2426,15 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B135" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B136" t="s">
         <v>144</v>
@@ -2439,7 +2442,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B137" t="s">
         <v>144</v>
@@ -2447,31 +2450,31 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B138" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B141" t="s">
         <v>155</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B142" t="s">
         <v>155</v>
@@ -2487,65 +2490,73 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B149" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
+        <v>157</v>
+      </c>
+      <c r="B150" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>158</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B151" t="s">
         <v>158</v>
       </c>
     </row>

--- a/master_data/skills.xlsx
+++ b/master_data/skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/master_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="8_{88A3CB9E-CDBA-4EEB-B550-FDA5CFD2561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B4821D4-092E-42F7-8992-1DE3C3D29D94}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="8_{88A3CB9E-CDBA-4EEB-B550-FDA5CFD2561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEEA9A6C-780D-4A3A-BA6C-0184FCE8CD01}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="167">
   <si>
     <t>Skills</t>
   </si>
@@ -500,6 +500,27 @@
   </si>
   <si>
     <t>PPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Word,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Word.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Word </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R.</t>
+  </si>
+  <si>
+    <t>Essbase</t>
+  </si>
+  <si>
+    <t>Teradata</t>
+  </si>
+  <si>
+    <t>Fabric</t>
   </si>
 </sst>
 </file>
@@ -1344,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B151"/>
+  <dimension ref="A1:B157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1818,31 +1839,31 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B62" t="s">
         <v>49</v>
@@ -1850,7 +1871,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
         <v>49</v>
@@ -1858,15 +1879,15 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B65" t="s">
         <v>50</v>
@@ -1874,7 +1895,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
         <v>50</v>
@@ -1882,682 +1903,730 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="B76" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="B78" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="B79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="B80" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B81" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B82" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B83" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B84" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B85" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B86" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B87" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B88" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B89" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B90" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B91" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B92" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B93" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B94" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B95" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B96" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B97" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B98" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B99" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B100" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B101" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B102" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B103" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="B104" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="B105" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B106" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B107" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="B108" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B109" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B110" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B111" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B112" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B113" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B114" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B115" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B116" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B117" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B118" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B119" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B120" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B121" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B122" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B123" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B124" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B125" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B126" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B127" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>156</v>
+      </c>
+      <c r="B152" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>157</v>
+      </c>
+      <c r="B153" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>158</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B154" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>164</v>
+      </c>
+      <c r="B155" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>165</v>
+      </c>
+      <c r="B156" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>166</v>
+      </c>
+      <c r="B157" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/master_data/skills.xlsx
+++ b/master_data/skills.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/master_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="217" documentId="8_{88A3CB9E-CDBA-4EEB-B550-FDA5CFD2561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEEA9A6C-780D-4A3A-BA6C-0184FCE8CD01}"/>
+  <xr:revisionPtr revIDLastSave="227" documentId="8_{88A3CB9E-CDBA-4EEB-B550-FDA5CFD2561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D59C1593-F0A1-456E-8EA0-D612404574DF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="168">
   <si>
     <t>Skills</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>Fabric</t>
+  </si>
+  <si>
+    <t>QuickBooks</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B157"/>
+  <dimension ref="A1:B158"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
       <selection activeCell="A158" sqref="A158"/>
@@ -2629,6 +2632,14 @@
         <v>166</v>
       </c>
     </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>167</v>
+      </c>
+      <c r="B158" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/master_data/skills.xlsx
+++ b/master_data/skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/master_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="227" documentId="8_{88A3CB9E-CDBA-4EEB-B550-FDA5CFD2561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D59C1593-F0A1-456E-8EA0-D612404574DF}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="8_{88A3CB9E-CDBA-4EEB-B550-FDA5CFD2561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C40E2CFA-D921-44D4-A9A6-9D6E486F6973}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="170">
   <si>
     <t>Skills</t>
   </si>
@@ -524,6 +524,12 @@
   </si>
   <si>
     <t>QuickBooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sage</t>
+  </si>
+  <si>
+    <t>Sage</t>
   </si>
 </sst>
 </file>
@@ -1368,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B158"/>
+  <dimension ref="A1:B159"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2640,6 +2646,14 @@
         <v>167</v>
       </c>
     </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>168</v>
+      </c>
+      <c r="B159" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
